--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2769.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2769.xlsx
@@ -354,7 +354,7 @@
         <v>2.424396316943302</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.37198793078373</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2769.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2769.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165507265760867</v>
+        <v>1.538636922836304</v>
       </c>
       <c r="B1">
-        <v>2.424396316943302</v>
+        <v>1.767015814781189</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.218263864517212</v>
       </c>
       <c r="D1">
-        <v>2.37198793078373</v>
+        <v>4.607551097869873</v>
       </c>
       <c r="E1">
-        <v>1.228089714900846</v>
+        <v>2.194780588150024</v>
       </c>
     </row>
   </sheetData>
